--- a/src/assets/Download/LocationMasterTemplate.xlsx
+++ b/src/assets/Download/LocationMasterTemplate.xlsx
@@ -1279,7 +1279,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="O1" sqref="O$1:O$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1379,11 +1379,6 @@
       <c r="F2" s="3">
         <v>392001</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
